--- a/document/02_DB設計/DB設計.xlsx
+++ b/document/02_DB設計/DB設計.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="master_genre" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,6 +15,7 @@
     <sheet name="master_user" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="data_in_out" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="data_stock" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="master_area" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="90">
   <si>
     <t xml:space="preserve">master_genre</t>
   </si>
@@ -440,6 +441,15 @@
   </si>
   <si>
     <t xml:space="preserve">在庫数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エリアマスター</t>
+  </si>
+  <si>
+    <t xml:space="preserve">area_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">area</t>
   </si>
 </sst>
 </file>
@@ -565,7 +575,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1150,7 +1160,7 @@
   </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -2175,4 +2185,187 @@
     <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.95"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/document/02_DB設計/DB設計.xlsx
+++ b/document/02_DB設計/DB設計.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="master_genre" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,9 +13,9 @@
     <sheet name="master_maker" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="master_scale" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="master_user" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="data_in_out" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="data_stock" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="master_area" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="master_area" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="data_inout" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="data_stock" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="95">
   <si>
     <t xml:space="preserve">master_genre</t>
   </si>
@@ -338,6 +338,30 @@
     <t xml:space="preserve">CHAR(60)</t>
   </si>
   <si>
+    <t xml:space="preserve">エリアマスター</t>
+  </si>
+  <si>
+    <t xml:space="preserve">area_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stock_flg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在庫条件フラグ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 : 在庫加減算なし</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 : 在庫加算 +</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 : 在庫減算 -</t>
+  </si>
+  <si>
     <t xml:space="preserve">data_inout</t>
   </si>
   <si>
@@ -373,7 +397,7 @@
     <t xml:space="preserve">入出庫数</t>
   </si>
   <si>
-    <t xml:space="preserve">out_area</t>
+    <t xml:space="preserve">out_area_id</t>
   </si>
   <si>
     <r>
@@ -396,7 +420,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">in_area</t>
+    <t xml:space="preserve">in_area_id</t>
   </si>
   <si>
     <r>
@@ -441,15 +465,6 @@
   </si>
   <si>
     <t xml:space="preserve">在庫数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">エリアマスター</t>
-  </si>
-  <si>
-    <t xml:space="preserve">area_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">area</t>
   </si>
 </sst>
 </file>
@@ -1744,8 +1759,8 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1757,10 +1772,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1791,10 +1806,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>12</v>
@@ -1813,13 +1828,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
@@ -1831,28 +1846,26 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>74</v>
-      </c>
       <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>12</v>
@@ -1865,13 +1878,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -1881,49 +1894,45 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>80</v>
+        <v>22</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D8" s="6"/>
-      <c r="E8" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>82</v>
+        <v>25</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9" s="6"/>
-      <c r="E9" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -1931,69 +1940,23 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="A12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="B13" s="0" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="B14" s="0" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2007,6 +1970,275 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.95"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2026,10 +2258,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2080,10 +2312,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>12</v>
@@ -2095,189 +2327,6 @@
       <c r="H4" s="6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.95"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">

--- a/document/02_DB設計/DB設計.xlsx
+++ b/document/02_DB設計/DB設計.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="master_genre" sheetId="1" state="visible" r:id="rId2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="96">
   <si>
     <t xml:space="preserve">master_genre</t>
   </si>
@@ -459,6 +459,9 @@
   </si>
   <si>
     <t xml:space="preserve">在庫データ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エリアID</t>
   </si>
   <si>
     <t xml:space="preserve">stock_quantity</t>
@@ -678,7 +681,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="1" sqref="E4 B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -861,7 +864,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="E4 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1176,7 +1179,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="E4 H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1362,7 +1365,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="E4 H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1545,7 +1548,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="E4 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1759,8 +1762,8 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="1" sqref="E4 C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1944,17 +1947,17 @@
       <c r="A12" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1977,7 +1980,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="E4 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2243,10 +2246,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2311,29 +2314,31 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>17</v>
+      <c r="A5" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>12</v>
@@ -2342,17 +2347,19 @@
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="H5" s="6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -2362,13 +2369,13 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -2378,13 +2385,13 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -2394,19 +2401,35 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
